--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Il1a-Il1rap.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Il1a-Il1rap.xlsx
@@ -534,52 +534,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.3811681968902</v>
+        <v>4.072082666666667</v>
       </c>
       <c r="H2">
-        <v>3.3811681968902</v>
+        <v>12.216248</v>
       </c>
       <c r="I2">
-        <v>0.4155871612260688</v>
+        <v>0.3979924983064649</v>
       </c>
       <c r="J2">
-        <v>0.4155871612260688</v>
+        <v>0.3979924983064649</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.69278389752269</v>
+        <v>2.719753333333333</v>
       </c>
       <c r="N2">
-        <v>2.69278389752269</v>
+        <v>8.15926</v>
       </c>
       <c r="O2">
-        <v>0.1163537940458276</v>
+        <v>0.1068554218872926</v>
       </c>
       <c r="P2">
-        <v>0.1163537940458276</v>
+        <v>0.1068554218872926</v>
       </c>
       <c r="Q2">
-        <v>9.104755275401757</v>
+        <v>11.07506040627556</v>
       </c>
       <c r="R2">
-        <v>9.104755275401757</v>
+        <v>99.67554365648</v>
       </c>
       <c r="S2">
-        <v>0.04835514296538814</v>
+        <v>0.0425276563145149</v>
       </c>
       <c r="T2">
-        <v>0.04835514296538814</v>
+        <v>0.0425276563145149</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.3811681968902</v>
+        <v>4.072082666666667</v>
       </c>
       <c r="H3">
-        <v>3.3811681968902</v>
+        <v>12.216248</v>
       </c>
       <c r="I3">
-        <v>0.4155871612260688</v>
+        <v>0.3979924983064649</v>
       </c>
       <c r="J3">
-        <v>0.4155871612260688</v>
+        <v>0.3979924983064649</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.72715606567875</v>
+        <v>5.856929333333333</v>
       </c>
       <c r="N3">
-        <v>5.72715606567875</v>
+        <v>17.570788</v>
       </c>
       <c r="O3">
-        <v>0.2474674399038671</v>
+        <v>0.2301108145385953</v>
       </c>
       <c r="P3">
-        <v>0.2474674399038671</v>
+        <v>0.2301108145385953</v>
       </c>
       <c r="Q3">
-        <v>19.36447794789979</v>
+        <v>23.84990041815822</v>
       </c>
       <c r="R3">
-        <v>19.36447794789979</v>
+        <v>214.649103763424</v>
       </c>
       <c r="S3">
-        <v>0.1028442908455309</v>
+        <v>0.09158237796555113</v>
       </c>
       <c r="T3">
-        <v>0.1028442908455309</v>
+        <v>0.09158237796555113</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.3811681968902</v>
+        <v>4.072082666666667</v>
       </c>
       <c r="H4">
-        <v>3.3811681968902</v>
+        <v>12.216248</v>
       </c>
       <c r="I4">
-        <v>0.4155871612260688</v>
+        <v>0.3979924983064649</v>
       </c>
       <c r="J4">
-        <v>0.4155871612260688</v>
+        <v>0.3979924983064649</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.52830251697503</v>
+        <v>6.639461666666667</v>
       </c>
       <c r="N4">
-        <v>6.52830251697503</v>
+        <v>19.918385</v>
       </c>
       <c r="O4">
-        <v>0.282084562087504</v>
+        <v>0.2608554492059968</v>
       </c>
       <c r="P4">
-        <v>0.282084562087504</v>
+        <v>0.2608554492059968</v>
       </c>
       <c r="Q4">
-        <v>22.07328885007422</v>
+        <v>27.03643676883111</v>
       </c>
       <c r="R4">
-        <v>22.07328885007422</v>
+        <v>243.32793091948</v>
       </c>
       <c r="S4">
-        <v>0.1172307223836446</v>
+        <v>0.1038185119263498</v>
       </c>
       <c r="T4">
-        <v>0.1172307223836446</v>
+        <v>0.1038185119263498</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.3811681968902</v>
+        <v>4.072082666666667</v>
       </c>
       <c r="H5">
-        <v>3.3811681968902</v>
+        <v>12.216248</v>
       </c>
       <c r="I5">
-        <v>0.4155871612260688</v>
+        <v>0.3979924983064649</v>
       </c>
       <c r="J5">
-        <v>0.4155871612260688</v>
+        <v>0.3979924983064649</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.80542616731872</v>
+        <v>8.531169</v>
       </c>
       <c r="N5">
-        <v>6.80542616731872</v>
+        <v>25.593507</v>
       </c>
       <c r="O5">
-        <v>0.2940589311287709</v>
+        <v>0.3351780661555555</v>
       </c>
       <c r="P5">
-        <v>0.2940589311287709</v>
+        <v>0.3351780661555555</v>
       </c>
       <c r="Q5">
-        <v>23.01029052322242</v>
+        <v>34.739625411304</v>
       </c>
       <c r="R5">
-        <v>23.01029052322242</v>
+        <v>312.656628701736</v>
       </c>
       <c r="S5">
-        <v>0.122207116420978</v>
+        <v>0.1333983559267791</v>
       </c>
       <c r="T5">
-        <v>0.122207116420978</v>
+        <v>0.1333983559267791</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.3811681968902</v>
+        <v>4.072082666666667</v>
       </c>
       <c r="H6">
-        <v>3.3811681968902</v>
+        <v>12.216248</v>
       </c>
       <c r="I6">
-        <v>0.4155871612260688</v>
+        <v>0.3979924983064649</v>
       </c>
       <c r="J6">
-        <v>0.4155871612260688</v>
+        <v>0.3979924983064649</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.3894004686017</v>
+        <v>1.705333666666667</v>
       </c>
       <c r="N6">
-        <v>1.3894004686017</v>
+        <v>5.116001</v>
       </c>
       <c r="O6">
-        <v>0.06003527283403042</v>
+        <v>0.06700024821255984</v>
       </c>
       <c r="P6">
-        <v>0.06003527283403042</v>
+        <v>0.06700024821255984</v>
       </c>
       <c r="Q6">
-        <v>4.697796677180409</v>
+        <v>6.944259664916444</v>
       </c>
       <c r="R6">
-        <v>4.697796677180409</v>
+        <v>62.498336984248</v>
       </c>
       <c r="S6">
-        <v>0.02494988861052723</v>
+        <v>0.02666559617326995</v>
       </c>
       <c r="T6">
-        <v>0.02494988861052723</v>
+        <v>0.02666559617326995</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.75471402554191</v>
+        <v>6.159473666666667</v>
       </c>
       <c r="H7">
-        <v>4.75471402554191</v>
+        <v>18.478421</v>
       </c>
       <c r="I7">
-        <v>0.5844128387739312</v>
+        <v>0.6020075016935351</v>
       </c>
       <c r="J7">
-        <v>0.5844128387739312</v>
+        <v>0.6020075016935351</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.69278389752269</v>
+        <v>2.719753333333333</v>
       </c>
       <c r="N7">
-        <v>2.69278389752269</v>
+        <v>8.15926</v>
       </c>
       <c r="O7">
-        <v>0.1163537940458276</v>
+        <v>0.1068554218872926</v>
       </c>
       <c r="P7">
-        <v>0.1163537940458276</v>
+        <v>0.1068554218872926</v>
       </c>
       <c r="Q7">
-        <v>12.80341736530454</v>
+        <v>16.75224903649556</v>
       </c>
       <c r="R7">
-        <v>12.80341736530454</v>
+        <v>150.77024132846</v>
       </c>
       <c r="S7">
-        <v>0.06799865108043943</v>
+        <v>0.06432776557277774</v>
       </c>
       <c r="T7">
-        <v>0.06799865108043943</v>
+        <v>0.06432776557277774</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.75471402554191</v>
+        <v>6.159473666666667</v>
       </c>
       <c r="H8">
-        <v>4.75471402554191</v>
+        <v>18.478421</v>
       </c>
       <c r="I8">
-        <v>0.5844128387739312</v>
+        <v>0.6020075016935351</v>
       </c>
       <c r="J8">
-        <v>0.5844128387739312</v>
+        <v>0.6020075016935351</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.72715606567875</v>
+        <v>5.856929333333333</v>
       </c>
       <c r="N8">
-        <v>5.72715606567875</v>
+        <v>17.570788</v>
       </c>
       <c r="O8">
-        <v>0.2474674399038671</v>
+        <v>0.2301108145385953</v>
       </c>
       <c r="P8">
-        <v>0.2474674399038671</v>
+        <v>0.2301108145385953</v>
       </c>
       <c r="Q8">
-        <v>27.23098927195018</v>
+        <v>36.07560199619422</v>
       </c>
       <c r="R8">
-        <v>27.23098927195018</v>
+        <v>324.680417965748</v>
       </c>
       <c r="S8">
-        <v>0.1446231490583362</v>
+        <v>0.1385284365730441</v>
       </c>
       <c r="T8">
-        <v>0.1446231490583362</v>
+        <v>0.1385284365730441</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.75471402554191</v>
+        <v>6.159473666666667</v>
       </c>
       <c r="H9">
-        <v>4.75471402554191</v>
+        <v>18.478421</v>
       </c>
       <c r="I9">
-        <v>0.5844128387739312</v>
+        <v>0.6020075016935351</v>
       </c>
       <c r="J9">
-        <v>0.5844128387739312</v>
+        <v>0.6020075016935351</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.52830251697503</v>
+        <v>6.639461666666667</v>
       </c>
       <c r="N9">
-        <v>6.52830251697503</v>
+        <v>19.918385</v>
       </c>
       <c r="O9">
-        <v>0.282084562087504</v>
+        <v>0.2608554492059968</v>
       </c>
       <c r="P9">
-        <v>0.282084562087504</v>
+        <v>0.2608554492059968</v>
       </c>
       <c r="Q9">
-        <v>31.04021154044173</v>
+        <v>40.89558929667611</v>
       </c>
       <c r="R9">
-        <v>31.04021154044173</v>
+        <v>368.060303670085</v>
       </c>
       <c r="S9">
-        <v>0.1648538397038595</v>
+        <v>0.157036937279647</v>
       </c>
       <c r="T9">
-        <v>0.1648538397038595</v>
+        <v>0.157036937279647</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.75471402554191</v>
+        <v>6.159473666666667</v>
       </c>
       <c r="H10">
-        <v>4.75471402554191</v>
+        <v>18.478421</v>
       </c>
       <c r="I10">
-        <v>0.5844128387739312</v>
+        <v>0.6020075016935351</v>
       </c>
       <c r="J10">
-        <v>0.5844128387739312</v>
+        <v>0.6020075016935351</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.80542616731872</v>
+        <v>8.531169</v>
       </c>
       <c r="N10">
-        <v>6.80542616731872</v>
+        <v>25.593507</v>
       </c>
       <c r="O10">
-        <v>0.2940589311287709</v>
+        <v>0.3351780661555555</v>
       </c>
       <c r="P10">
-        <v>0.2940589311287709</v>
+        <v>0.3351780661555555</v>
       </c>
       <c r="Q10">
-        <v>32.35785524754024</v>
+        <v>52.54751080138301</v>
       </c>
       <c r="R10">
-        <v>32.35785524754024</v>
+        <v>472.927597212447</v>
       </c>
       <c r="S10">
-        <v>0.171851814707793</v>
+        <v>0.2017797102287764</v>
       </c>
       <c r="T10">
-        <v>0.171851814707793</v>
+        <v>0.2017797102287764</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.75471402554191</v>
+        <v>6.159473666666667</v>
       </c>
       <c r="H11">
-        <v>4.75471402554191</v>
+        <v>18.478421</v>
       </c>
       <c r="I11">
-        <v>0.5844128387739312</v>
+        <v>0.6020075016935351</v>
       </c>
       <c r="J11">
-        <v>0.5844128387739312</v>
+        <v>0.6020075016935351</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.3894004686017</v>
+        <v>1.705333666666667</v>
       </c>
       <c r="N11">
-        <v>1.3894004686017</v>
+        <v>5.116001</v>
       </c>
       <c r="O11">
-        <v>0.06003527283403042</v>
+        <v>0.06700024821255984</v>
       </c>
       <c r="P11">
-        <v>0.06003527283403042</v>
+        <v>0.06700024821255984</v>
       </c>
       <c r="Q11">
-        <v>6.606201895155006</v>
+        <v>10.50395781271344</v>
       </c>
       <c r="R11">
-        <v>6.606201895155006</v>
+        <v>94.535620314421</v>
       </c>
       <c r="S11">
-        <v>0.03508538422350319</v>
+        <v>0.0403346520392899</v>
       </c>
       <c r="T11">
-        <v>0.03508538422350319</v>
+        <v>0.0403346520392899</v>
       </c>
     </row>
   </sheetData>
